--- a/run_entrance/test_suite/test_suite_cnj04制证.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj04制证.xlsx
@@ -300,9 +300,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -324,62 +324,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -399,11 +348,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -414,17 +371,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,6 +409,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -448,14 +432,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,6 +444,29 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -483,187 +483,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,6 +674,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -688,15 +736,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,23 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,30 +774,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -782,10 +782,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,133 +794,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1823,7 +1823,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1997,7 +1997,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>70</v>
       </c>
@@ -2009,6 +2009,9 @@
       </c>
       <c r="D11" s="2" t="s">
         <v>87</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6">

--- a/run_entrance/test_suite/test_suite_cnj04制证.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj04制证.xlsx
@@ -178,7 +178,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://10.45.67.194:9180/</t>
+    <t>http://10.45.67.194:9180/mainmanager.html</t>
   </si>
   <si>
     <t>测试用例序号</t>
@@ -300,12 +300,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +322,103 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF3296FA"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -334,38 +431,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,53 +444,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,34 +461,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -483,49 +489,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,127 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,11 +683,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,7 +702,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,6 +737,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -740,21 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -763,17 +780,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -782,10 +788,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -794,137 +800,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,6 +981,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1332,8 +1341,8 @@
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="31.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="84.875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="20" customWidth="1"/>
+    <col min="5" max="5" width="84.875" style="21" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1347,10 +1356,10 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -1370,7 +1379,7 @@
       <c r="D2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="24" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1385,7 +1394,7 @@
       <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1400,7 +1409,7 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1417,7 +1426,7 @@
       <c r="D5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1431,7 +1440,7 @@
       <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1445,10 +1454,10 @@
       <c r="C7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1460,7 +1469,7 @@
       <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -1477,10 +1486,10 @@
       <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="24" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1491,10 +1500,10 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="21" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1505,10 +1514,10 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="21" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1519,7 +1528,7 @@
       <c r="C12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="25" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -1533,10 +1542,10 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="21" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1547,7 +1556,7 @@
       <c r="C14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="15" t="s">
@@ -1564,10 +1573,10 @@
       <c r="C15" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1579,10 +1588,10 @@
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1593,7 +1602,7 @@
       <c r="C17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="15" t="s">
@@ -1608,7 +1617,7 @@
       <c r="C18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="15" t="s">
@@ -1622,7 +1631,7 @@
       <c r="C19" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -1636,7 +1645,7 @@
       <c r="C20" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="15" t="s">
@@ -1646,19 +1655,19 @@
     <row r="21" ht="14.25" spans="2:5">
       <c r="B21" s="15"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="3:5">
       <c r="C22" s="8"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="23"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="8"/>
@@ -1691,12 +1700,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="16" t="s">
+    <row r="2" ht="15.75" spans="1:1">
+      <c r="A2" s="19" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://10.45.67.194:9180/mainmanager.html" tooltip="http://10.45.67.194:9180/mainmanager.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1823,7 +1835,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1872,7 +1884,7 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="27" t="s">
         <v>84</v>
       </c>
       <c r="E2" s="9"/>
@@ -2053,7 +2065,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">

--- a/run_entrance/test_suite/test_suite_cnj04制证.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj04制证.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
+    <workbookView windowWidth="21045" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="181">
   <si>
     <t>模块</t>
   </si>
@@ -145,36 +145,216 @@
     <t>制证</t>
   </si>
   <si>
-    <t>制证-环节名称点击</t>
+    <t>申请信息-环节名称点击</t>
   </si>
   <si>
     <t>//div[text()='当前环节处理人信息']/following-sibling::*//td[@title='制证出证']</t>
   </si>
   <si>
-    <t>制证-环节名称验证</t>
+    <t>申请信息-环节名称验证</t>
+  </si>
+  <si>
+    <t>业务流程-业务流程点击</t>
+  </si>
+  <si>
+    <t>//a[text()='业务流程']</t>
+  </si>
+  <si>
+    <t>业务流程-表单切换</t>
+  </si>
+  <si>
+    <t>switch_iframe</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>flow-pic</t>
+  </si>
+  <si>
+    <t>业务流程-流程轨迹核查1高亮</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>//div[@id='module1']/div[1]</t>
+  </si>
+  <si>
+    <t>业务流程-流程轨迹核查1</t>
+  </si>
+  <si>
+    <t>业务流程-流程轨迹核查2高亮</t>
+  </si>
+  <si>
+    <t>//div[@id='module2']/div[1]</t>
+  </si>
+  <si>
+    <t>业务流程-流程轨迹核查2</t>
+  </si>
+  <si>
+    <t>业务流程-流程轨迹核查3高亮</t>
+  </si>
+  <si>
+    <t>//div[@id='module3']/div[1]</t>
+  </si>
+  <si>
+    <t>业务流程-流程轨迹核查3</t>
+  </si>
+  <si>
+    <t>业务流程-流程轨迹核查4高亮</t>
+  </si>
+  <si>
+    <t>//div[@id='module4']/div[1]</t>
+  </si>
+  <si>
+    <t>业务流程-流程轨迹核查4</t>
+  </si>
+  <si>
+    <t>业务流程-表单退出</t>
+  </si>
+  <si>
+    <t>switch_iframe_out</t>
+  </si>
+  <si>
+    <t>流转痕迹-流转痕迹点击</t>
+  </si>
+  <si>
+    <t>//a[text()='流转痕迹']</t>
+  </si>
+  <si>
+    <t>流转痕迹-环节处理高亮</t>
+  </si>
+  <si>
+    <t>//div[@class='handleGroupContent-0']</t>
+  </si>
+  <si>
+    <t>流转痕迹-环节处理核查处理部门</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'处理部门')]/following-sibling::div</t>
+  </si>
+  <si>
+    <t>流转痕迹-环节处理核查处理人</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'处理人')]/following-sibling::div</t>
+  </si>
+  <si>
+    <t>过程文书-过程文书点击</t>
+  </si>
+  <si>
+    <t>//a[text()='过程文书']</t>
+  </si>
+  <si>
+    <t>过程文书-过程文书名称高亮</t>
+  </si>
+  <si>
+    <t>//td[contains(@aria-describedby,'templateName')]</t>
+  </si>
+  <si>
+    <t>过程文书-过程文书名称验证</t>
+  </si>
+  <si>
+    <t>办事指南-办事指南点击</t>
+  </si>
+  <si>
+    <t>//a[text()='办事指南']</t>
+  </si>
+  <si>
+    <t>办事指南-办事指南验证</t>
+  </si>
+  <si>
+    <t>//form[@class='form-horizontal clearfix js-form-popwin ']/div[@class='gid col-md-12']</t>
+  </si>
+  <si>
+    <t>办事指南-下载办事指南点击</t>
+  </si>
+  <si>
+    <t>//button[contains(text(),'下载办事指南')]</t>
+  </si>
+  <si>
+    <t>办事指南-下载办事指南验证</t>
+  </si>
+  <si>
+    <t>呈批表-呈批表点击</t>
+  </si>
+  <si>
+    <t>//a[text()='呈批表']</t>
+  </si>
+  <si>
+    <t>呈批表-呈批表申请事项高亮</t>
+  </si>
+  <si>
+    <t>//td[text()='申请事项']/following-sibling::td</t>
+  </si>
+  <si>
+    <t>呈批表-呈批表申请事项验证</t>
+  </si>
+  <si>
+    <t>呈批表-受理单位高亮</t>
+  </si>
+  <si>
+    <t>//td[text()='受理单位']/following-sibling::td</t>
+  </si>
+  <si>
+    <t>呈批表-受理单位验证</t>
+  </si>
+  <si>
+    <t>制证-申请信息点击</t>
+  </si>
+  <si>
+    <t>//a[text()='申请信息']</t>
   </si>
   <si>
     <t>制证-制证许可</t>
   </si>
   <si>
-    <t>//button[text()='制证']</t>
+    <t>document_get</t>
+  </si>
+  <si>
+    <t>className</t>
+  </si>
+  <si>
+    <t>('btn btn_minwidth btn-primary js-deal')[3]</t>
+  </si>
+  <si>
+    <t>制证-结果物上传点击</t>
+  </si>
+  <si>
+    <t>//span[text()='结果物上传']</t>
+  </si>
+  <si>
+    <t>制证-结果物图片上传操作</t>
+  </si>
+  <si>
+    <t>upload_file</t>
+  </si>
+  <si>
+    <t>制证-结果物图片上传验证</t>
+  </si>
+  <si>
+    <t>//td[contains(@aria-describedby,'trueName')]</t>
   </si>
   <si>
     <t>制证-确定</t>
   </si>
   <si>
+    <t>('btn btn_minwidth btn-primary js-ok')[0]</t>
+  </si>
+  <si>
+    <t>制证-提交结果检查</t>
+  </si>
+  <si>
+    <t>//div[@class='modal-message']</t>
+  </si>
+  <si>
+    <t>制证-制证成功确定</t>
+  </si>
+  <si>
     <t>//button[text()='确定']</t>
   </si>
   <si>
-    <t>制证-提交结果检查</t>
-  </si>
-  <si>
-    <t>//div[@class='modal-message']</t>
-  </si>
-  <si>
-    <t>制证-制证成功确定</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -241,7 +421,43 @@
     <t>能够显示未处理事项单子</t>
   </si>
   <si>
-    <t>cnj_st_005_制证流程</t>
+    <t>cnj_st_005_申请信息</t>
+  </si>
+  <si>
+    <t>制证-申请信息核查</t>
+  </si>
+  <si>
+    <t>cnj_st_006_业务流程</t>
+  </si>
+  <si>
+    <t>制证-业务流程核查</t>
+  </si>
+  <si>
+    <t>cnj_st_007_流转痕迹</t>
+  </si>
+  <si>
+    <t>制证-流转痕迹核查</t>
+  </si>
+  <si>
+    <t>cnj_st_008_过程文书</t>
+  </si>
+  <si>
+    <t>制证-过程文书核查</t>
+  </si>
+  <si>
+    <t>cnj_st_009_办事指南</t>
+  </si>
+  <si>
+    <t>制证-办事指南核查</t>
+  </si>
+  <si>
+    <t>cnj_st_010_呈批表</t>
+  </si>
+  <si>
+    <t>制证-呈批表核查</t>
+  </si>
+  <si>
+    <t>cnj_st_011_制证流程</t>
   </si>
   <si>
     <t>制证事项信息验证、通过</t>
@@ -286,7 +502,58 @@
     <t>{"text":"业务办理"}</t>
   </si>
   <si>
+    <t>申请信息</t>
+  </si>
+  <si>
     <t>{"text":"制证出证"}</t>
+  </si>
+  <si>
+    <t>业务流程</t>
+  </si>
+  <si>
+    <t>{"text":"受理"}</t>
+  </si>
+  <si>
+    <t>{"text":"审查"}</t>
+  </si>
+  <si>
+    <t>{"text":"决定"}</t>
+  </si>
+  <si>
+    <t>流转痕迹</t>
+  </si>
+  <si>
+    <t>{"text":"省农业厅"}</t>
+  </si>
+  <si>
+    <t>{"text":"省农业厅业务审批员"}</t>
+  </si>
+  <si>
+    <t>过程文书</t>
+  </si>
+  <si>
+    <t>{"text":"受理通知书"}</t>
+  </si>
+  <si>
+    <t>办事指南</t>
+  </si>
+  <si>
+    <t>{"len":5}</t>
+  </si>
+  <si>
+    <t>{"file":"渔业船舶登记.doc"}</t>
+  </si>
+  <si>
+    <t>呈批表</t>
+  </si>
+  <si>
+    <t>{"text":"渔业船舶登记"}</t>
+  </si>
+  <si>
+    <t>结果物上传.png</t>
+  </si>
+  <si>
+    <t>{"text":"结果物上传.png"}</t>
   </si>
   <si>
     <t>{"text":"制证成功"}</t>
@@ -300,9 +567,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -330,37 +597,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -377,7 +613,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,7 +627,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,9 +665,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,55 +734,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -489,13 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,73 +768,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,25 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +810,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,13 +840,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,25 +912,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,30 +947,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -737,26 +980,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -775,8 +998,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,10 +1055,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -800,137 +1067,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1003,6 +1270,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1328,12 +1599,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1595,85 +1866,532 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="2:5">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:5">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="2:5">
-      <c r="B19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="15" t="s">
+      <c r="D28" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="2:5">
-      <c r="B20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="15" t="s">
+      <c r="D30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="2:5">
-      <c r="B21" s="15"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="8"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="24"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
-    </row>
-    <row r="26" ht="14.25" spans="6:6">
-      <c r="F26" s="16"/>
+      <c r="D32" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="26"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="2:5">
+      <c r="B45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="2:5">
+      <c r="B46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="2:5">
+      <c r="B47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" ht="14.25" spans="2:5">
+      <c r="B48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:5">
+      <c r="A49" s="1"/>
+      <c r="B49" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25" spans="2:5">
+      <c r="B50" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="2:5">
+      <c r="B51" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="2:5">
+      <c r="B52" s="15"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="24"/>
+    </row>
+    <row r="53" spans="3:5">
+      <c r="C53" s="8"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="24"/>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="24"/>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="57" ht="14.25" spans="6:6">
+      <c r="F57" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1697,12 +2415,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:1">
       <c r="A2" s="19" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1717,13 +2435,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A6" sqref="A6:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="24.625" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
@@ -1734,59 +2452,59 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="17" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>30</v>
@@ -1795,30 +2513,102 @@
     </row>
     <row r="5" ht="27" spans="1:5">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>77</v>
+        <v>135</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1830,12 +2620,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1850,33 +2640,33 @@
   <sheetData>
     <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:6">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>6</v>
@@ -1884,15 +2674,15 @@
       <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="27" t="s">
-        <v>84</v>
+      <c r="D2" s="29" t="s">
+        <v>156</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>6</v>
@@ -1908,7 +2698,7 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>6</v>
@@ -1922,7 +2712,7 @@
     </row>
     <row r="5" ht="14.25" spans="1:6">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -1936,7 +2726,7 @@
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -1946,13 +2736,13 @@
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="8" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>23</v>
@@ -1965,7 +2755,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>23</v>
@@ -1981,7 +2771,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>29</v>
@@ -1997,7 +2787,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -2006,12 +2796,12 @@
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -2020,7 +2810,7 @@
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
@@ -2028,7 +2818,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>29</v>
@@ -2042,7 +2832,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>29</v>
@@ -2051,12 +2841,12 @@
         <v>38</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>29</v>
@@ -2070,10 +2860,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>42</v>
@@ -2081,82 +2871,478 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="8"/>
       <c r="F17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>144</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:6">
-      <c r="A18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="C46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:6">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F49" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:5">
-      <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="50" ht="14.25" spans="1:5">
+      <c r="A50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:3">
-      <c r="A20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="C50" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" ht="14.25" spans="1:3">
+      <c r="A51" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="3:5">
-      <c r="C22" s="8"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" s="8"/>
-    </row>
-    <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
-        <v>91</v>
+      <c r="C51" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" ht="14.25" spans="3:5">
+      <c r="C53" s="8"/>
+      <c r="E53" s="16"/>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54" s="8"/>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/run_entrance/test_suite/test_suite_cnj04制证.xlsx
+++ b/run_entrance/test_suite/test_suite_cnj04制证.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765"/>
+    <workbookView windowWidth="17145" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -232,13 +232,13 @@
     <t>流转痕迹-环节处理核查处理部门</t>
   </si>
   <si>
-    <t>//label[contains(text(),'处理部门')]/following-sibling::div</t>
+    <t>//div[@class='handleGroupContent-0']//label[contains(text(),'处理部门：省农业厅')]</t>
   </si>
   <si>
     <t>流转痕迹-环节处理核查处理人</t>
   </si>
   <si>
-    <t>//label[contains(text(),'处理人')]/following-sibling::div</t>
+    <t>//div[@class='handleGroupContent-0']//label[contains(text(),'处理人：省农业厅业务审批员')]</t>
   </si>
   <si>
     <t>过程文书-过程文书点击</t>
@@ -523,31 +523,31 @@
     <t>流转痕迹</t>
   </si>
   <si>
+    <t>{"len":1}</t>
+  </si>
+  <si>
+    <t>过程文书</t>
+  </si>
+  <si>
+    <t>{"text":"受理通知书"}</t>
+  </si>
+  <si>
+    <t>办事指南</t>
+  </si>
+  <si>
+    <t>{"len":5}</t>
+  </si>
+  <si>
+    <t>{"file":"渔业船舶登记.doc"}</t>
+  </si>
+  <si>
+    <t>呈批表</t>
+  </si>
+  <si>
+    <t>{"text":"渔业船舶登记"}</t>
+  </si>
+  <si>
     <t>{"text":"省农业厅"}</t>
-  </si>
-  <si>
-    <t>{"text":"省农业厅业务审批员"}</t>
-  </si>
-  <si>
-    <t>过程文书</t>
-  </si>
-  <si>
-    <t>{"text":"受理通知书"}</t>
-  </si>
-  <si>
-    <t>办事指南</t>
-  </si>
-  <si>
-    <t>{"len":5}</t>
-  </si>
-  <si>
-    <t>{"file":"渔业船舶登记.doc"}</t>
-  </si>
-  <si>
-    <t>呈批表</t>
-  </si>
-  <si>
-    <t>{"text":"渔业船舶登记"}</t>
   </si>
   <si>
     <t>结果物上传.png</t>
@@ -567,9 +567,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -598,7 +598,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,43 +620,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -657,54 +642,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,15 +665,76 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -756,7 +756,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,19 +846,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,43 +900,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,13 +924,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,85 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,16 +950,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -980,21 +1009,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1004,20 +1018,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,17 +1047,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1055,145 +1055,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1601,10 +1601,10 @@
   <sheetPr/>
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2622,10 +2622,10 @@
   <sheetPr/>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="A58"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3057,7 +3057,7 @@
       <c r="C30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="1" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3071,8 +3071,8 @@
       <c r="C31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>169</v>
+      <c r="E31" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3080,7 +3080,7 @@
         <v>140</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>74</v>
@@ -3091,7 +3091,7 @@
         <v>140</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>76</v>
@@ -3102,13 +3102,13 @@
         <v>140</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>78</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3116,7 +3116,7 @@
         <v>142</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>79</v>
@@ -3127,13 +3127,13 @@
         <v>142</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -3141,7 +3141,7 @@
         <v>142</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>83</v>
@@ -3152,13 +3152,13 @@
         <v>142</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3166,7 +3166,7 @@
         <v>144</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>86</v>
@@ -3177,7 +3177,7 @@
         <v>144</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>88</v>
@@ -3188,13 +3188,13 @@
         <v>144</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3202,7 +3202,7 @@
         <v>144</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>91</v>
@@ -3214,13 +3214,13 @@
         <v>144</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:6">
